--- a/USA/Berekening temperture.xlsx
+++ b/USA/Berekening temperture.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db9e4f8f00016419/Documenten/GitHub/zeuristieken/USA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobbo\OneDrive\Documenten\GitHub\zeuristieken\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="D4555A41BE3E57AED29D0E641542E1440667BCD6" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="D4555A41BE3E57AED29D0E641542E1440667BCD6" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{B1E2C915-30AD-43C0-9D61-627A56E14763}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{4023BD08-1E2E-487C-839A-69FAA7D41478}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Temperture" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,12 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>i</t>
   </si>
   <si>
     <t xml:space="preserve">loop a </t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>/// nieuw - oud</t>
+  </si>
+  <si>
+    <t>--------------------</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>// &gt;= ran.getal 0 - 1</t>
+  </si>
+  <si>
+    <t>https://www.google.nl/search?q=simulated+annealing+formula&amp;source=lnms&amp;tbm=isch&amp;sa=X&amp;ved=0ahUKEwjts-Tr5fzXAhWsZpoKHZ0tAOcQ_AUICigB#imgrc=cVWs_1OR-GB3WM:</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -66,8 +87,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,309 +177,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:f>Temperture!$H$2:$H$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>904.61048027461777</c:v>
+                  <c:v>45.230524013730886</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>818.32012102267458</c:v>
+                  <c:v>40.916006051133728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>740.26095769670508</c:v>
+                  <c:v>37.013047884835252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>669.64782047056485</c:v>
+                  <c:v>33.482391023528244</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>605.77043649072868</c:v>
+                  <c:v>30.288521824536435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>547.98628549004286</c:v>
+                  <c:v>27.399314274502146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>495.71413690105157</c:v>
+                  <c:v>24.78570684505258</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>448.4282034609779</c:v>
+                  <c:v>22.421410173048894</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>405.65285250151925</c:v>
+                  <c:v>20.282642625075962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>366.95782172616805</c:v>
+                  <c:v>18.347891086308401</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>331.95389135223638</c:v>
+                  <c:v>16.597694567611821</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300.28896908517487</c:v>
+                  <c:v>15.014448454258744</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>271.64454854530987</c:v>
+                  <c:v>13.582227427265495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>245.73250552355447</c:v>
+                  <c:v>12.286625276177723</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>222.2921998407478</c:v>
+                  <c:v>11.114609992037391</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>201.08785365924018</c:v>
+                  <c:v>10.054392682962009</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>181.90617987607729</c:v>
+                  <c:v>9.0953089938038651</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>164.55423674261928</c:v>
+                  <c:v>8.2277118371309648</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>148.85748713096399</c:v>
+                  <c:v>7.4428743565481996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134.65804292601408</c:v>
+                  <c:v>6.7329021463007042</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>121.81307688414169</c:v>
+                  <c:v>6.0906538442070852</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110.19338598389237</c:v>
+                  <c:v>5.509669299194619</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>99.682091817975206</c:v>
+                  <c:v>4.9841045908987605</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.173464954237105</c:v>
+                  <c:v>4.5086732477118554</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>81.571861440278852</c:v>
+                  <c:v>4.0785930720139429</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>73.790760754385218</c:v>
+                  <c:v>3.6895380377192608</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66.75189552585384</c:v>
+                  <c:v>3.3375947762926921</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>60.384464270883747</c:v>
+                  <c:v>3.0192232135441874</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>54.624419225209643</c:v>
+                  <c:v>2.7312209612604823</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>49.41382211003895</c:v>
+                  <c:v>2.4706911055019476</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44.700261351166873</c:v>
+                  <c:v>2.2350130675583437</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40.436324889279994</c:v>
+                  <c:v>2.0218162444639995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>36.579123278632053</c:v>
+                  <c:v>1.8289561639316028</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.089858277107794</c:v>
+                  <c:v>1.6544929138553897</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29.933432588273522</c:v>
+                  <c:v>1.4966716294136762</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.078096829945999</c:v>
+                  <c:v>1.3539048414973001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.495130178260059</c:v>
+                  <c:v>1.224756508913003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>22.158551474945117</c:v>
+                  <c:v>1.1079275737472558</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20.044857891939941</c:v>
+                  <c:v>1.002242894596997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18.132788524664253</c:v>
+                  <c:v>0.9066394262332127</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16.403110536014605</c:v>
+                  <c:v>0.82015552680073034</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.838425699981817</c:v>
+                  <c:v>0.74192128499909094</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.422995398979783</c:v>
+                  <c:v>0.67114976994898912</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.142582314595087</c:v>
+                  <c:v>0.60712911572975437</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10.984307219379943</c:v>
+                  <c:v>0.54921536096899715</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.936519429207241</c:v>
+                  <c:v>0.496825971460362</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.9886796131132325</c:v>
+                  <c:v>0.44943398065566165</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.1312537818530259</c:v>
+                  <c:v>0.40656268909265131</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.3556173888368681</c:v>
+                  <c:v>0.36778086944184341</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.653968578832048</c:v>
+                  <c:v>0.3326984289416024</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.0192497118294765</c:v>
+                  <c:v>0.30096248559147382</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.4450763727109175</c:v>
+                  <c:v>0.27225381863554587</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.9256731526499973</c:v>
+                  <c:v>0.24628365763249985</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.4558155562945041</c:v>
+                  <c:v>0.22279077781472523</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.0307774503946856</c:v>
+                  <c:v>0.20153887251973426</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.646283525281635</c:v>
+                  <c:v>0.18231417626408175</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.2984662910224465</c:v>
+                  <c:v>0.16492331455112233</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.9838271756914527</c:v>
+                  <c:v>0.14919135878457265</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.6992013344587016</c:v>
+                  <c:v>0.13496006672293509</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.4417258155225752</c:v>
+                  <c:v>0.12208629077612876</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.2088107626788092</c:v>
+                  <c:v>0.11044053813394046</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.9981133648626224</c:v>
+                  <c:v>9.9905668243131129E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.8075142906315096</c:v>
+                  <c:v>9.0375714531575474E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6350963705514048</c:v>
+                  <c:v>8.1754818527570244E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.4791253130597908</c:v>
+                  <c:v>7.3956265652989531E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.3380322598333616</c:v>
+                  <c:v>6.690161299166808E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2103980051907894</c:v>
+                  <c:v>6.0519900259539475E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.0949387207990793</c:v>
+                  <c:v>5.474693603995396E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.99049304209333089</c:v>
+                  <c:v>4.9524652104666542E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.89601038651671505</c:v>
+                  <c:v>4.4800519325835751E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.81054038607793177</c:v>
+                  <c:v>4.0527019303896586E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.7332233279319319</c:v>
+                  <c:v>3.6661166396596598E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.6632815068290584</c:v>
+                  <c:v>3.3164075341452916E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.60001140244990681</c:v>
+                  <c:v>3.0000570122495344E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.54277660294045715</c:v>
+                  <c:v>2.7138830147022855E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.49100140346779253</c:v>
+                  <c:v>2.4550070173389626E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.44416501540651115</c:v>
+                  <c:v>2.2208250770325556E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.40179632790806702</c:v>
+                  <c:v>2.0089816395403352E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.36346916916149435</c:v>
+                  <c:v>1.8173458458074717E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.32879801968019567</c:v>
+                  <c:v>1.6439900984009784E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.29743413449624506</c:v>
+                  <c:v>1.4871706724812252E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.26906203525671346</c:v>
+                  <c:v>1.3453101762835672E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.24339633693724175</c:v>
+                  <c:v>1.2169816846862087E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.22017887725388094</c:v>
+                  <c:v>1.1008943862694047E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.19917611989895936</c:v>
+                  <c:v>9.9588059949479672E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.18017680548103249</c:v>
+                  <c:v>9.008840274051624E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.16298982654054314</c:v>
+                  <c:v>8.1494913270271571E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.14744230526671739</c:v>
+                  <c:v>7.372115263335869E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.13337785458012202</c:v>
+                  <c:v>6.6688927290061021E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.12065500508972231</c:v>
+                  <c:v>6.0327502544861153E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.10914578210175016</c:v>
+                  <c:v>5.4572891050875079E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.8734418367012994E-2</c:v>
+                  <c:v>4.9367209183506502E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.9316189618618674E-2</c:v>
+                  <c:v>4.4658094809309334E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.0796361187197449E-2</c:v>
+                  <c:v>4.0398180593598726E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.3089235097992186E-2</c:v>
+                  <c:v>3.6544617548996093E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.6117288064899152E-2</c:v>
+                  <c:v>3.3058644032449578E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.981039171084368E-2</c:v>
+                  <c:v>2.9905195855421838E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.4105107170959323E-2</c:v>
+                  <c:v>2.7052553585479658E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.8944046983231182E-2</c:v>
+                  <c:v>2.4472023491615589E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.4275297848084205E-2</c:v>
+                  <c:v>2.2137648924042104E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,7 +661,1189 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Temperture!$I$2:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>48.012628389456367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.331420401456342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.885585875131156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.625143477457797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.513707686380123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.524101186092032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.635575464597949</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.831988509845608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.100574154977039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.431089342012037</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.815209775820051</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.24609298866735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.718056778677777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.226338758112696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.766913951834823</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.336354618766421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.931721238156406</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.550476808414409</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.190418799694456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.849624626442278</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.526407582221459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.219280948873624</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.926928549645574</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.648180424556536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.381992609036452</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.127430223461722</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.883653252420448</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.64990452304837</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.425499492094009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.209817529089243</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.002294443655785</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.802416052646912</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.609712620534829</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.423754036473607</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.24414561550708</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30.070524430748996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.902556099035568</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.739931955303369</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.582366561373458</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.429595503388949</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.281373439220978</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.13747236301483</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.99768005892015</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.861798720118596</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28.729643712673589</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.601042466596564</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28.47583347894702</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28.353865415835298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28.234996301940591</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28.119092787642384</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.00602948513346</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.895688365971253</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27.787958213459842</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.682734124061355</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.579917052732057</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.479413397681856</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27.381134620579786</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27.284996898683755</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>27.19092080577061</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.098831019089726</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27.008656049867948</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.920327995160491</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.833782309077513</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>26.74895759162278</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.665795393563631</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26.584240035912806</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.504238442745855</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.425739986204743</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.348696342651049</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>26.27306135903266</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.198790928617306</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26.125842875326349</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.054176845973657</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25.98375420977851</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.914537964578862</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.846492649222924</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25.779584261663349</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25.713780182320182</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25.649049102316265</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25.585360956222917</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25.522686858984361</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25.460999046717188</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25.400270821106396</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>25.340476497142301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25.281591353963471</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25.223591588589603</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>25.166454272345494</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>25.110157309792836</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25.054679400000889</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24.946099290273906</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24.89295814215761</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24.840558087017538</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24.788881287099823</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24.737910507940935</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>24.687629092242542</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24.638020935119453</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.589070460636158</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24.54076259955324</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>24.493082768210559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2F5-461D-80DA-466A5E29C0AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="475955376"/>
+        <c:axId val="475953736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="475955376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475953736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="475953736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475955376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Temperture!$AY$2:$AY$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0436-4446-BC91-84FDA55E7EB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="481335304"/>
+        <c:axId val="481332680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="481335304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481332680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="481332680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481335304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1192,20 +2399,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1225,6 +3464,166 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F869ED54-636F-4477-948B-72AF167F2FF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>49200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>484852</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>29831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9429794D-8F68-4560-84F5-994741AE81A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13152120" y="3889680"/>
+          <a:ext cx="4401532" cy="3089591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>41753</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>370467</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1698B5FD-979C-4986-9ECE-3069BDE9EAED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17629957" y="285698"/>
+          <a:ext cx="8819571" cy="4908343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>369389</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>102514</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC51AE39-102B-4013-B1FA-B236527307F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1530,932 +3929,3112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB57DCD4-EF19-4C8D-A11D-60AB66A3BE9E}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:AY101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="49" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ38" sqref="AQ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="AY1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <f>$E$3*($D$2^(A2*$C$1))</f>
-        <v>904.61048027461777</v>
-      </c>
-      <c r="D2">
+      <c r="H2">
+        <f>$N$3*($M$2^(G2*$L$1))</f>
+        <v>45.230524013730886</v>
+      </c>
+      <c r="I2">
+        <f>$N$3/LOG(G2+10)</f>
+        <v>48.012628389456367</v>
+      </c>
+      <c r="M2">
         <v>0.995</v>
       </c>
-      <c r="E2" t="s">
+      <c r="N2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>45.230524013730886</v>
+      </c>
+      <c r="AU2">
+        <f>$AS$2*($AS$101/$AS$2)^(AR2/50)</f>
+        <v>37.087334112729472</v>
+      </c>
+      <c r="AY2">
+        <f>$AY$1-AR2</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <f>$E$3*($D$2^(A3*$C$1))</f>
-        <v>818.32012102267458</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="H3">
+        <f t="shared" ref="H3:H33" si="0">$N$3*($M$2^(G3*$L$1))</f>
+        <v>40.916006051133728</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="1">$N$3/LOG(G3+10)</f>
+        <v>46.331420401456342</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
+      </c>
+      <c r="AR3">
+        <v>2</v>
+      </c>
+      <c r="AS3">
+        <v>40.916006051133728</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" ref="AU3:AU66" si="2">$AS$2*($AS$101/$AS$2)^(AR3/50)</f>
+        <v>30.410223661606665</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" ref="AY3:AY66" si="3">$AY$1-AR3</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <f>$E$3*($D$2^(A4*$C$1))</f>
-        <v>740.26095769670508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>37.013047884835252</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>44.885585875131156</v>
+      </c>
+      <c r="AR4">
+        <v>3</v>
+      </c>
+      <c r="AS4">
+        <v>37.013047884835252</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="2"/>
+        <v>24.935243399754885</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f>$E$3*($D$2^(A5*$C$1))</f>
-        <v>669.64782047056485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>33.482391023528244</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>43.625143477457797</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR5">
+        <v>4</v>
+      </c>
+      <c r="AS5">
+        <v>33.482391023528244</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="2"/>
+        <v>20.445964828269524</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f>$E$3*($D$2^(A6*$C$1))</f>
-        <v>605.77043649072868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>30.288521824536435</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>42.513707686380123</v>
+      </c>
+      <c r="AR6">
+        <v>5</v>
+      </c>
+      <c r="AS6">
+        <v>30.288521824536435</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="2"/>
+        <v>16.76492469140862</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7">
+        <f>2.72^B7</f>
+        <v>0.9393914159409722</v>
+      </c>
+      <c r="B7">
+        <f>(1097-1100)/I2</f>
+        <v>-6.2483561109493511E-2</v>
+      </c>
+      <c r="D7">
+        <f>2.72^E7</f>
+        <v>1.0645189886031876</v>
+      </c>
+      <c r="E7">
+        <f>(1100-1097)/I2</f>
+        <v>6.2483561109493511E-2</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <f>$E$3*($D$2^(A7*$C$1))</f>
-        <v>547.98628549004286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>27.399314274502146</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>41.524101186092032</v>
+      </c>
+      <c r="AR7">
+        <v>6</v>
+      </c>
+      <c r="AS7">
+        <v>27.399314274502146</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="2"/>
+        <v>13.746609772114656</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f t="shared" ref="A8:A28" si="4">2.72^B8</f>
+        <v>0.93726259091416142</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B28" si="5">(1097-1100)/I3</f>
+        <v>-6.4750874762857485E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D28" si="6">2.72^E8</f>
+        <v>1.0669368538699997</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E28" si="7">(1100-1097)/I3</f>
+        <v>6.4750874762857485E-2</v>
+      </c>
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>$E$3*($D$2^(A8*$C$1))</f>
-        <v>495.71413690105157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>24.78570684505258</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>40.635575464597949</v>
+      </c>
+      <c r="AR8">
+        <v>7</v>
+      </c>
+      <c r="AS8">
+        <v>24.78570684505258</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="2"/>
+        <v>11.271704687324817</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9">
+        <f t="shared" si="4"/>
+        <v>0.9353085221848193</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="5"/>
+        <v>-6.6836601138410209E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="6"/>
+        <v>1.0691659236292059</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="7"/>
+        <v>6.6836601138410209E-2</v>
+      </c>
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <f>$E$3*($D$2^(A9*$C$1))</f>
-        <v>448.4282034609779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>22.421410173048894</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>39.831988509845608</v>
+      </c>
+      <c r="AR9">
+        <v>8</v>
+      </c>
+      <c r="AS9">
+        <v>22.421410173048894</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="2"/>
+        <v>9.242375295761077</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f t="shared" si="4"/>
+        <v>0.9335029693893423</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="5"/>
+        <v>-6.8767682140694272E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="6"/>
+        <v>1.0712338715474652</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="7"/>
+        <v>6.8767682140694272E-2</v>
+      </c>
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <f>$E$3*($D$2^(A10*$C$1))</f>
-        <v>405.65285250151925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>20.282642625075962</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>39.100574154977039</v>
+      </c>
+      <c r="AR10">
+        <v>9</v>
+      </c>
+      <c r="AS10">
+        <v>20.282642625075962</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="2"/>
+        <v>7.5784012691312146</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11">
+        <f t="shared" si="4"/>
+        <v>0.93182517303041157</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="5"/>
+        <v>-7.0565475543340889E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="6"/>
+        <v>1.073162680020626</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="7"/>
+        <v>7.0565475543340889E-2</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <f>$E$3*($D$2^(A11*$C$1))</f>
-        <v>366.95782172616805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>18.347891086308401</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>38.431089342012037</v>
+      </c>
+      <c r="AR11">
+        <v>10</v>
+      </c>
+      <c r="AS11">
+        <v>18.347891086308401</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="2"/>
+        <v>6.2140049454938566</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12">
+        <f t="shared" si="4"/>
+        <v>0.9302584292322581</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="5"/>
+        <v>-7.2247198959355483E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="6"/>
+        <v>1.0749701035499346</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="7"/>
+        <v>7.2247198959355483E-2</v>
+      </c>
+      <c r="G12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <f>$E$3*($D$2^(A12*$C$1))</f>
-        <v>331.95389135223638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>16.597694567611821</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>37.815209775820051</v>
+      </c>
+      <c r="AR12">
+        <v>11</v>
+      </c>
+      <c r="AS12">
+        <v>16.597694567611821</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="2"/>
+        <v>5.0952511078961127</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13">
+        <f t="shared" si="4"/>
+        <v>0.92878909922985287</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="5"/>
+        <v>-7.3826935282696432E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="6"/>
+        <v>1.0766706896422393</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="7"/>
+        <v>7.3826935282696432E-2</v>
+      </c>
+      <c r="G13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <f>$E$3*($D$2^(A13*$C$1))</f>
-        <v>300.28896908517487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>15.014448454258744</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>37.24609298866735</v>
+      </c>
+      <c r="AR13">
+        <v>12</v>
+      </c>
+      <c r="AS13">
+        <v>15.014448454258744</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="2"/>
+        <v>4.1779149003321665</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14">
+        <f t="shared" si="4"/>
+        <v>0.92740590366167019</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="5"/>
+        <v>-7.5316350306198362E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="6"/>
+        <v>1.0782765087559902</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="7"/>
+        <v>7.5316350306198362E-2</v>
+      </c>
+      <c r="G14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <f>$E$3*($D$2^(A14*$C$1))</f>
-        <v>271.64454854530987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>13.582227427265495</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>36.718056778677777</v>
+      </c>
+      <c r="AR14">
+        <v>13</v>
+      </c>
+      <c r="AS14">
+        <v>13.582227427265495</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="2"/>
+        <v>3.4257335987558215</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15">
+        <f t="shared" si="4"/>
+        <v>0.92609940877387176</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="5"/>
+        <v>-7.6725216057169726E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="6"/>
+        <v>1.0797976875117223</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="7"/>
+        <v>7.6725216057169726E-2</v>
+      </c>
+      <c r="G15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <f>$E$3*($D$2^(A15*$C$1))</f>
-        <v>245.73250552355447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>12.286625276177723</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>36.226338758112696</v>
+      </c>
+      <c r="AR15">
+        <v>14</v>
+      </c>
+      <c r="AS15">
+        <v>12.286625276177723</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="2"/>
+        <v>2.80897312884747</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16">
+        <f t="shared" si="4"/>
+        <v>0.92486164516272318</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="5"/>
+        <v>-7.8061799739838886E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>1.0812428055918102</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>7.8061799739838886E-2</v>
+      </c>
+      <c r="G16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <f>$E$3*($D$2^(A16*$C$1))</f>
-        <v>222.2921998407478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>11.114609992037391</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>35.766913951834823</v>
+      </c>
+      <c r="AR16">
+        <v>15</v>
+      </c>
+      <c r="AS16">
+        <v>11.114609992037391</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="2"/>
+        <v>2.3032526643206599</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17">
+        <f t="shared" si="4"/>
+        <v>0.92368582005708522</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="5"/>
+        <v>-7.9333157684035163E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="6"/>
+        <v>1.0826191961442024</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>7.9333157684035163E-2</v>
+      </c>
+      <c r="G17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <f>$E$3*($D$2^(A17*$C$1))</f>
-        <v>201.08785365924018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>10.054392682962009</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>35.336354618766421</v>
+      </c>
+      <c r="AR17">
+        <v>16</v>
+      </c>
+      <c r="AS17">
+        <v>10.054392682962009</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="2"/>
+        <v>1.8885808415963248</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18">
+        <f t="shared" si="4"/>
+        <v>0.92256609690122904</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="5"/>
+        <v>-8.0545360849332365E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>1.0839331765592304</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="7"/>
+        <v>8.0545360849332365E-2</v>
+      </c>
+      <c r="G18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <f>$E$3*($D$2^(A18*$C$1))</f>
-        <v>181.90617987607729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>9.0953089938038651</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>34.931721238156406</v>
+      </c>
+      <c r="AR18">
+        <v>17</v>
+      </c>
+      <c r="AS18">
+        <v>9.0953089938038651</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="2"/>
+        <v>1.5485654919655483</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19">
+        <f t="shared" si="4"/>
+        <v>0.92149742420002589</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="5"/>
+        <v>-8.1703670161055578E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="6"/>
+        <v>1.0851902281421177</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="7"/>
+        <v>8.1703670161055578E-2</v>
+      </c>
+      <c r="G19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <f>$E$3*($D$2^(A19*$C$1))</f>
-        <v>164.55423674261928</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>8.2277118371309648</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>34.550476808414409</v>
+      </c>
+      <c r="AR19">
+        <v>18</v>
+      </c>
+      <c r="AS19">
+        <v>8.2277118371309648</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="2"/>
+        <v>1.2697656515881752</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20">
+        <f t="shared" si="4"/>
+        <v>0.92047540098614755</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="5"/>
+        <v>-8.281267450269636E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>1.0863951376958625</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="7"/>
+        <v>8.281267450269636E-2</v>
+      </c>
+      <c r="G20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <f>$E$3*($D$2^(A20*$C$1))</f>
-        <v>148.85748713096399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>7.4428743565481996</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>34.190418799694456</v>
+      </c>
+      <c r="AR20">
+        <v>19</v>
+      </c>
+      <c r="AS20">
+        <v>7.4428743565481996</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="2"/>
+        <v>1.0411602339831885</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21">
+        <f t="shared" si="4"/>
+        <v>0.9194961698966112</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="5"/>
+        <v>-8.3876400520322261E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>1.0875521103175891</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>8.3876400520322261E-2</v>
+      </c>
+      <c r="G21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <f>$E$3*($D$2^(A21*$C$1))</f>
-        <v>134.65804292601408</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>6.7329021463007042</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>33.849624626442278</v>
+      </c>
+      <c r="AR21">
+        <v>20</v>
+      </c>
+      <c r="AS21">
+        <v>6.7329021463007042</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="2"/>
+        <v>0.85371236138895656</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22">
+        <f t="shared" si="4"/>
+        <v>0.91855633133092807</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="5"/>
+        <v>-8.4898400878249083E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>1.0886648601627571</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="7"/>
+        <v>8.4898400878249083E-2</v>
+      </c>
+      <c r="G22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <f>$E$3*($D$2^(A22*$C$1))</f>
-        <v>121.81307688414169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>6.0906538442070852</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>33.526407582221459</v>
+      </c>
+      <c r="AR22">
+        <v>21</v>
+      </c>
+      <c r="AS22">
+        <v>6.0906538442070852</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="2"/>
+        <v>0.70001213281074792</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23">
+        <f t="shared" si="4"/>
+        <v>0.91765287389485639</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="5"/>
+        <v>-8.5881825849539253E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>1.0897366841512</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>8.5881825849539253E-2</v>
+      </c>
+      <c r="G23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <f>$E$3*($D$2^(A23*$C$1))</f>
-        <v>110.19338598389237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>5.509669299194619</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>33.219280948873624</v>
+      </c>
+      <c r="AR23">
+        <v>22</v>
+      </c>
+      <c r="AS23">
+        <v>5.509669299194619</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="2"/>
+        <v>0.57398370721142344</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24">
+        <f t="shared" si="4"/>
+        <v>0.91678311755975073</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="5"/>
+        <v>-8.682948188053316E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="6"/>
+        <v>1.0907705223256641</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="7"/>
+        <v>8.682948188053316E-2</v>
+      </c>
+      <c r="G24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <f>$E$3*($D$2^(A24*$C$1))</f>
-        <v>99.682091817975206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>4.9841045908987605</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>32.926928549645574</v>
+      </c>
+      <c r="AR24">
+        <v>23</v>
+      </c>
+      <c r="AS24">
+        <v>4.9841045908987605</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="2"/>
+        <v>0.47064512270852255</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25">
+        <f t="shared" si="4"/>
+        <v>0.91594466684801423</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="5"/>
+        <v>-8.7743879873937364E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="6"/>
+        <v>1.0917690076642297</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>8.7743879873937364E-2</v>
+      </c>
+      <c r="G25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <f>$E$3*($D$2^(A25*$C$1))</f>
-        <v>90.173464954237105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>4.5086732477118554</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>32.648180424556536</v>
+      </c>
+      <c r="AR25">
+        <v>24</v>
+      </c>
+      <c r="AS25">
+        <v>4.5086732477118554</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="2"/>
+        <v>0.38591135731964177</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26">
+        <f t="shared" si="4"/>
+        <v>0.91513537199598782</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="5"/>
+        <v>-8.8627275283179735E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="6"/>
+        <v>1.0927345074848491</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>8.8627275283179735E-2</v>
+      </c>
+      <c r="G26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <f>$E$3*($D$2^(A26*$C$1))</f>
-        <v>81.571861440278852</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>4.0785930720139429</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>32.381992609036452</v>
+      </c>
+      <c r="AR26">
+        <v>25</v>
+      </c>
+      <c r="AS26">
+        <v>4.0785930720139429</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="2"/>
+        <v>0.31643284615640488</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27">
+        <f t="shared" si="4"/>
+        <v>0.91435329651772201</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="5"/>
+        <v>-8.9481701630056365E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>1.0936691580907074</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="7"/>
+        <v>8.9481701630056365E-2</v>
+      </c>
+      <c r="G27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <f>$E$3*($D$2^(A27*$C$1))</f>
-        <v>73.790760754385218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>3.6895380377192608</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>32.127430223461722</v>
+      </c>
+      <c r="AR27">
+        <v>26</v>
+      </c>
+      <c r="AS27">
+        <v>3.6895380377192608</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="2"/>
+        <v>0.25946307157710252</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28">
+        <f t="shared" si="4"/>
+        <v>0.91359668994484411</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="5"/>
+        <v>-9.0308998699194357E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="6"/>
+        <v>1.0945748939396576</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="7"/>
+        <v>9.0308998699194357E-2</v>
+      </c>
+      <c r="G28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <f>$E$3*($D$2^(A28*$C$1))</f>
-        <v>66.75189552585384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>3.3375947762926921</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>31.883653252420448</v>
+      </c>
+      <c r="AR28">
+        <v>27</v>
+      </c>
+      <c r="AS28">
+        <v>3.3375947762926921</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="2"/>
+        <v>0.21274999207556819</v>
+      </c>
+      <c r="AY28">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="G29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <f>$E$3*($D$2^(A29*$C$1))</f>
-        <v>60.384464270883747</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>3.0192232135441874</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>31.64990452304837</v>
+      </c>
+      <c r="AR29">
+        <v>28</v>
+      </c>
+      <c r="AS29">
+        <v>3.0192232135441874</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="2"/>
+        <v>0.17444701804011453</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="G30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <f>$E$3*($D$2^(A30*$C$1))</f>
-        <v>54.624419225209643</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2.7312209612604823</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>31.425499492094009</v>
+      </c>
+      <c r="AR30">
+        <v>29</v>
+      </c>
+      <c r="AS30">
+        <v>2.7312209612604823</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="2"/>
+        <v>0.14304001521315587</v>
+      </c>
+      <c r="AY30">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="G31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <f>$E$3*($D$2^(A31*$C$1))</f>
-        <v>49.41382211003895</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2.4706911055019476</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>31.209817529089243</v>
+      </c>
+      <c r="AR31">
+        <v>30</v>
+      </c>
+      <c r="AS31">
+        <v>2.4706911055019476</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="2"/>
+        <v>0.11728745026455495</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="G32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <f>$E$3*($D$2^(A32*$C$1))</f>
-        <v>44.700261351166873</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>2.2350130675583437</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>31.002294443655785</v>
+      </c>
+      <c r="AR32">
+        <v>31</v>
+      </c>
+      <c r="AS32">
+        <v>2.2350130675583437</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="2"/>
+        <v>9.6171312405559831E-2</v>
+      </c>
+      <c r="AY32">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <f>$E$3*($D$2^(A33*$C$1))</f>
-        <v>40.436324889279994</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>2.0218162444639995</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>30.802416052646912</v>
+      </c>
+      <c r="AR33">
+        <v>32</v>
+      </c>
+      <c r="AS33">
+        <v>2.0218162444639995</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="2"/>
+        <v>7.8856870952056804E-2</v>
+      </c>
+      <c r="AY33">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <f>$E$3*($D$2^(A34*$C$1))</f>
-        <v>36.579123278632053</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="H34">
+        <f t="shared" ref="H34:H65" si="8">$N$3*($M$2^(G34*$L$1))</f>
+        <v>1.8289561639316028</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>30.609712620534829</v>
+      </c>
+      <c r="AR34">
+        <v>33</v>
+      </c>
+      <c r="AS34">
+        <v>1.8289561639316028</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="2"/>
+        <v>6.4659678035025356E-2</v>
+      </c>
+      <c r="AY34">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <f>$E$3*($D$2^(A35*$C$1))</f>
-        <v>33.089858277107794</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="H35">
+        <f t="shared" si="8"/>
+        <v>1.6544929138553897</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>30.423754036473607</v>
+      </c>
+      <c r="AR35">
+        <v>34</v>
+      </c>
+      <c r="AS35">
+        <v>1.6544929138553897</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="2"/>
+        <v>5.3018512060097049E-2</v>
+      </c>
+      <c r="AY35">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <f>$E$3*($D$2^(A36*$C$1))</f>
-        <v>29.933432588273522</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="H36">
+        <f t="shared" si="8"/>
+        <v>1.4966716294136762</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>30.24414561550708</v>
+      </c>
+      <c r="AR36">
+        <v>35</v>
+      </c>
+      <c r="AS36">
+        <v>1.4966716294136762</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="2"/>
+        <v>4.3473192358675146E-2</v>
+      </c>
+      <c r="AY36">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <f>$E$3*($D$2^(A37*$C$1))</f>
-        <v>27.078096829945999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="H37">
+        <f t="shared" si="8"/>
+        <v>1.3539048414973001</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>30.070524430748996</v>
+      </c>
+      <c r="AR37">
+        <v>36</v>
+      </c>
+      <c r="AS37">
+        <v>1.3539048414973001</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="2"/>
+        <v>3.5646388033525468E-2</v>
+      </c>
+      <c r="AY37">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <f>$E$3*($D$2^(A38*$C$1))</f>
-        <v>24.495130178260059</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="H38">
+        <f t="shared" si="8"/>
+        <v>1.224756508913003</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>29.902556099035568</v>
+      </c>
+      <c r="AR38">
+        <v>37</v>
+      </c>
+      <c r="AS38">
+        <v>1.224756508913003</v>
+      </c>
+      <c r="AU38">
+        <f t="shared" si="2"/>
+        <v>2.9228701894101972E-2</v>
+      </c>
+      <c r="AY38">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <f>$E$3*($D$2^(A39*$C$1))</f>
-        <v>22.158551474945117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="H39">
+        <f t="shared" si="8"/>
+        <v>1.1079275737472558</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>29.739931955303369</v>
+      </c>
+      <c r="AR39">
+        <v>38</v>
+      </c>
+      <c r="AS39">
+        <v>1.1079275737472558</v>
+      </c>
+      <c r="AU39">
+        <f t="shared" si="2"/>
+        <v>2.3966439842678964E-2</v>
+      </c>
+      <c r="AY39">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <f>$E$3*($D$2^(A40*$C$1))</f>
-        <v>20.044857891939941</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="H40">
+        <f t="shared" si="8"/>
+        <v>1.002242894596997</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>29.582366561373458</v>
+      </c>
+      <c r="AR40">
+        <v>39</v>
+      </c>
+      <c r="AS40">
+        <v>1.002242894596997</v>
+      </c>
+      <c r="AU40">
+        <f t="shared" si="2"/>
+        <v>1.9651582229474784E-2</v>
+      </c>
+      <c r="AY40">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <f>$E$3*($D$2^(A41*$C$1))</f>
-        <v>18.132788524664253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="H41">
+        <f t="shared" si="8"/>
+        <v>0.9066394262332127</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>29.429595503388949</v>
+      </c>
+      <c r="AR41">
+        <v>40</v>
+      </c>
+      <c r="AS41">
+        <v>0.9066394262332127</v>
+      </c>
+      <c r="AU41">
+        <f t="shared" si="2"/>
+        <v>1.6113560739801618E-2</v>
+      </c>
+      <c r="AY41">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <f>$E$3*($D$2^(A42*$C$1))</f>
-        <v>16.403110536014605</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="H42">
+        <f t="shared" si="8"/>
+        <v>0.82015552680073034</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>29.281373439220978</v>
+      </c>
+      <c r="AR42">
+        <v>41</v>
+      </c>
+      <c r="AS42">
+        <v>0.82015552680073034</v>
+      </c>
+      <c r="AU42">
+        <f t="shared" si="2"/>
+        <v>1.3212515749792418E-2</v>
+      </c>
+      <c r="AY42">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <f>$E$3*($D$2^(A43*$C$1))</f>
-        <v>14.838425699981817</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="H43">
+        <f t="shared" si="8"/>
+        <v>0.74192128499909094</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>29.13747236301483</v>
+      </c>
+      <c r="O43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR43">
+        <v>42</v>
+      </c>
+      <c r="AS43">
+        <v>0.74192128499909094</v>
+      </c>
+      <c r="AU43">
+        <f t="shared" si="2"/>
+        <v>1.0833767610861527E-2</v>
+      </c>
+      <c r="AY43">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <f>$E$3*($D$2^(A44*$C$1))</f>
-        <v>13.422995398979783</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="H44">
+        <f t="shared" si="8"/>
+        <v>0.67114976994898912</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>28.99768005892015</v>
+      </c>
+      <c r="AR44">
+        <v>43</v>
+      </c>
+      <c r="AS44">
+        <v>0.67114976994898912</v>
+      </c>
+      <c r="AU44">
+        <f t="shared" si="2"/>
+        <v>8.883283310220166E-3</v>
+      </c>
+      <c r="AY44">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <f>$E$3*($D$2^(A45*$C$1))</f>
-        <v>12.142582314595087</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="H45">
+        <f t="shared" si="8"/>
+        <v>0.60712911572975437</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>28.861798720118596</v>
+      </c>
+      <c r="AR45">
+        <v>44</v>
+      </c>
+      <c r="AS45">
+        <v>0.60712911572975437</v>
+      </c>
+      <c r="AU45">
+        <f t="shared" si="2"/>
+        <v>7.2839593024426122E-3</v>
+      </c>
+      <c r="AY45">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <f>$E$3*($D$2^(A46*$C$1))</f>
-        <v>10.984307219379943</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="H46">
+        <f t="shared" si="8"/>
+        <v>0.54921536096899715</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>28.729643712673589</v>
+      </c>
+      <c r="AR46">
+        <v>45</v>
+      </c>
+      <c r="AS46">
+        <v>0.54921536096899715</v>
+      </c>
+      <c r="AU46">
+        <f t="shared" si="2"/>
+        <v>5.9725735706976134E-3</v>
+      </c>
+      <c r="AY46">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <f>$E$3*($D$2^(A47*$C$1))</f>
-        <v>9.936519429207241</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="H47">
+        <f t="shared" si="8"/>
+        <v>0.496825971460362</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>28.601042466596564</v>
+      </c>
+      <c r="AR47">
+        <v>46</v>
+      </c>
+      <c r="AS47">
+        <v>0.496825971460362</v>
+      </c>
+      <c r="AU47">
+        <f t="shared" si="2"/>
+        <v>4.8972864312179136E-3</v>
+      </c>
+      <c r="AY47">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <f>$E$3*($D$2^(A48*$C$1))</f>
-        <v>8.9886796131132325</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="H48">
+        <f t="shared" si="8"/>
+        <v>0.44943398065566165</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>28.47583347894702</v>
+      </c>
+      <c r="AR48">
+        <v>47</v>
+      </c>
+      <c r="AS48">
+        <v>0.44943398065566165</v>
+      </c>
+      <c r="AU48">
+        <f t="shared" si="2"/>
+        <v>4.0155912866536286E-3</v>
+      </c>
+      <c r="AY48">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <f>$E$3*($D$2^(A49*$C$1))</f>
-        <v>8.1312537818530259</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="H49">
+        <f t="shared" si="8"/>
+        <v>0.40656268909265131</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>28.353865415835298</v>
+      </c>
+      <c r="AR49">
+        <v>48</v>
+      </c>
+      <c r="AS49">
+        <v>0.40656268909265131</v>
+      </c>
+      <c r="AU49">
+        <f t="shared" si="2"/>
+        <v>3.2926343206432329E-3</v>
+      </c>
+      <c r="AY49">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <f>$E$3*($D$2^(A50*$C$1))</f>
-        <v>7.3556173888368681</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="H50">
+        <f t="shared" si="8"/>
+        <v>0.36778086944184341</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>28.234996301940591</v>
+      </c>
+      <c r="AR50">
+        <v>49</v>
+      </c>
+      <c r="AS50">
+        <v>0.36778086944184341</v>
+      </c>
+      <c r="AU50">
+        <f t="shared" si="2"/>
+        <v>2.6998367103521627E-3</v>
+      </c>
+      <c r="AY50">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <f>$E$3*($D$2^(A51*$C$1))</f>
-        <v>6.653968578832048</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="H51">
+        <f t="shared" si="8"/>
+        <v>0.3326984289416024</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>28.119092787642384</v>
+      </c>
+      <c r="AR51">
+        <v>50</v>
+      </c>
+      <c r="AS51">
+        <v>0.3326984289416024</v>
+      </c>
+      <c r="AU51">
+        <f t="shared" si="2"/>
+        <v>2.2137648924042104E-3</v>
+      </c>
+      <c r="AY51">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G52">
         <v>51</v>
       </c>
-      <c r="B52">
-        <f>$E$3*($D$2^(A52*$C$1))</f>
-        <v>6.0192497118294765</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="H52">
+        <f t="shared" si="8"/>
+        <v>0.30096248559147382</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>28.00602948513346</v>
+      </c>
+      <c r="AR52">
+        <v>51</v>
+      </c>
+      <c r="AS52">
+        <v>0.30096248559147382</v>
+      </c>
+      <c r="AU52">
+        <f t="shared" si="2"/>
+        <v>1.8152042232962217E-3</v>
+      </c>
+      <c r="AY52">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G53">
         <v>52</v>
       </c>
-      <c r="B53">
-        <f>$E$3*($D$2^(A53*$C$1))</f>
-        <v>5.4450763727109175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="H53">
+        <f t="shared" si="8"/>
+        <v>0.27225381863554587</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>27.895688365971253</v>
+      </c>
+      <c r="AR53">
+        <v>52</v>
+      </c>
+      <c r="AS53">
+        <v>0.27225381863554587</v>
+      </c>
+      <c r="AU53">
+        <f t="shared" si="2"/>
+        <v>1.4883994156642446E-3</v>
+      </c>
+      <c r="AY53">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G54">
         <v>53</v>
       </c>
-      <c r="B54">
-        <f>$E$3*($D$2^(A54*$C$1))</f>
-        <v>4.9256731526499973</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="H54">
+        <f t="shared" si="8"/>
+        <v>0.24628365763249985</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>27.787958213459842</v>
+      </c>
+      <c r="AR54">
+        <v>53</v>
+      </c>
+      <c r="AS54">
+        <v>0.24628365763249985</v>
+      </c>
+      <c r="AU54">
+        <f t="shared" si="2"/>
+        <v>1.2204317244959065E-3</v>
+      </c>
+      <c r="AY54">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G55">
         <v>54</v>
       </c>
-      <c r="B55">
-        <f>$E$3*($D$2^(A55*$C$1))</f>
-        <v>4.4558155562945041</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="H55">
+        <f t="shared" si="8"/>
+        <v>0.22279077781472523</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>27.682734124061355</v>
+      </c>
+      <c r="AR55">
+        <v>54</v>
+      </c>
+      <c r="AS55">
+        <v>0.22279077781472523</v>
+      </c>
+      <c r="AU55">
+        <f t="shared" si="2"/>
+        <v>1.0007082631723152E-3</v>
+      </c>
+      <c r="AY55">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G56">
         <v>55</v>
       </c>
-      <c r="B56">
-        <f>$E$3*($D$2^(A56*$C$1))</f>
-        <v>4.0307774503946856</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="H56">
+        <f t="shared" si="8"/>
+        <v>0.20153887251973426</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>27.579917052732057</v>
+      </c>
+      <c r="AR56">
+        <v>55</v>
+      </c>
+      <c r="AS56">
+        <v>0.20153887251973426</v>
+      </c>
+      <c r="AU56">
+        <f t="shared" si="2"/>
+        <v>8.2054326176663459E-4</v>
+      </c>
+      <c r="AY56">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G57">
         <v>56</v>
       </c>
-      <c r="B57">
-        <f>$E$3*($D$2^(A57*$C$1))</f>
-        <v>3.646283525281635</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="H57">
+        <f t="shared" si="8"/>
+        <v>0.18231417626408175</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>27.479413397681856</v>
+      </c>
+      <c r="AR57">
+        <v>56</v>
+      </c>
+      <c r="AS57">
+        <v>0.18231417626408175</v>
+      </c>
+      <c r="AU57">
+        <f t="shared" si="2"/>
+        <v>6.7281471454652393E-4</v>
+      </c>
+      <c r="AY57">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G58">
         <v>57</v>
       </c>
-      <c r="B58">
-        <f>$E$3*($D$2^(A58*$C$1))</f>
-        <v>3.2984662910224465</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="H58">
+        <f t="shared" si="8"/>
+        <v>0.16492331455112233</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>27.381134620579786</v>
+      </c>
+      <c r="AR58">
+        <v>57</v>
+      </c>
+      <c r="AS58">
+        <v>0.16492331455112233</v>
+      </c>
+      <c r="AU58">
+        <f t="shared" si="2"/>
+        <v>5.5168284379753299E-4</v>
+      </c>
+      <c r="AY58">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G59">
         <v>58</v>
       </c>
-      <c r="B59">
-        <f>$E$3*($D$2^(A59*$C$1))</f>
-        <v>2.9838271756914527</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="H59">
+        <f t="shared" si="8"/>
+        <v>0.14919135878457265</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>27.284996898683755</v>
+      </c>
+      <c r="AR59">
+        <v>58</v>
+      </c>
+      <c r="AS59">
+        <v>0.14919135878457265</v>
+      </c>
+      <c r="AU59">
+        <f t="shared" si="2"/>
+        <v>4.5235925071238564E-4</v>
+      </c>
+      <c r="AY59">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G60">
         <v>59</v>
       </c>
-      <c r="B60">
-        <f>$E$3*($D$2^(A60*$C$1))</f>
-        <v>2.6992013344587016</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="H60">
+        <f t="shared" si="8"/>
+        <v>0.13496006672293509</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>27.19092080577061</v>
+      </c>
+      <c r="AR60">
+        <v>59</v>
+      </c>
+      <c r="AS60">
+        <v>0.13496006672293509</v>
+      </c>
+      <c r="AU60">
+        <f t="shared" si="2"/>
+        <v>3.7091762777413678E-4</v>
+      </c>
+      <c r="AY60">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G61">
         <v>60</v>
       </c>
-      <c r="B61">
-        <f>$E$3*($D$2^(A61*$C$1))</f>
-        <v>2.4417258155225752</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="H61">
+        <f t="shared" si="8"/>
+        <v>0.12208629077612876</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>27.098831019089726</v>
+      </c>
+      <c r="AR61">
+        <v>60</v>
+      </c>
+      <c r="AS61">
+        <v>0.12208629077612876</v>
+      </c>
+      <c r="AU61">
+        <f t="shared" si="2"/>
+        <v>3.041385500062824E-4</v>
+      </c>
+      <c r="AY61">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G62">
         <v>61</v>
       </c>
-      <c r="B62">
-        <f>$E$3*($D$2^(A62*$C$1))</f>
-        <v>2.2088107626788092</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="H62">
+        <f t="shared" si="8"/>
+        <v>0.11044053813394046</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>27.008656049867948</v>
+      </c>
+      <c r="AR62">
+        <v>61</v>
+      </c>
+      <c r="AS62">
+        <v>0.11044053813394046</v>
+      </c>
+      <c r="AU62">
+        <f t="shared" si="2"/>
+        <v>2.4938220961622789E-4</v>
+      </c>
+      <c r="AY62">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G63">
         <v>62</v>
       </c>
-      <c r="B63">
-        <f>$E$3*($D$2^(A63*$C$1))</f>
-        <v>1.9981133648626224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="H63">
+        <f t="shared" si="8"/>
+        <v>9.9905668243131129E-2</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>26.920327995160491</v>
+      </c>
+      <c r="AR63">
+        <v>62</v>
+      </c>
+      <c r="AS63">
+        <v>9.9905668243131129E-2</v>
+      </c>
+      <c r="AU63">
+        <f t="shared" si="2"/>
+        <v>2.044840631737992E-4</v>
+      </c>
+      <c r="AY63">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G64">
         <v>63</v>
       </c>
-      <c r="B64">
-        <f>$E$3*($D$2^(A64*$C$1))</f>
-        <v>1.8075142906315096</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="H64">
+        <f t="shared" si="8"/>
+        <v>9.0375714531575474E-2</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>26.833782309077513</v>
+      </c>
+      <c r="AR64">
+        <v>63</v>
+      </c>
+      <c r="AS64">
+        <v>9.0375714531575474E-2</v>
+      </c>
+      <c r="AU64">
+        <f t="shared" si="2"/>
+        <v>1.6766926620953842E-4</v>
+      </c>
+      <c r="AY64">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G65">
         <v>64</v>
       </c>
-      <c r="B65">
-        <f>$E$3*($D$2^(A65*$C$1))</f>
-        <v>1.6350963705514048</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="H65">
+        <f t="shared" si="8"/>
+        <v>8.1754818527570244E-2</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>26.74895759162278</v>
+      </c>
+      <c r="AR65">
+        <v>64</v>
+      </c>
+      <c r="AS65">
+        <v>8.1754818527570244E-2</v>
+      </c>
+      <c r="AU65">
+        <f t="shared" si="2"/>
+        <v>1.374825127929445E-4</v>
+      </c>
+      <c r="AY65">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G66">
         <v>65</v>
       </c>
-      <c r="B66">
-        <f>$E$3*($D$2^(A66*$C$1))</f>
-        <v>1.4791253130597908</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="H66">
+        <f t="shared" ref="H66:H97" si="9">$N$3*($M$2^(G66*$L$1))</f>
+        <v>7.3956265652989531E-2</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>26.665795393563631</v>
+      </c>
+      <c r="AR66">
+        <v>65</v>
+      </c>
+      <c r="AS66">
+        <v>7.3956265652989531E-2</v>
+      </c>
+      <c r="AU66">
+        <f t="shared" si="2"/>
+        <v>1.1273050661676265E-4</v>
+      </c>
+      <c r="AY66">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G67">
         <v>66</v>
       </c>
-      <c r="B67">
-        <f>$E$3*($D$2^(A67*$C$1))</f>
-        <v>1.3380322598333616</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="H67">
+        <f t="shared" si="9"/>
+        <v>6.690161299166808E-2</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I101" si="10">$N$3/LOG(G67+10)</f>
+        <v>26.584240035912806</v>
+      </c>
+      <c r="AR67">
+        <v>66</v>
+      </c>
+      <c r="AS67">
+        <v>6.690161299166808E-2</v>
+      </c>
+      <c r="AU67">
+        <f t="shared" ref="AU67:AU101" si="11">$AS$2*($AS$101/$AS$2)^(AR67/50)</f>
+        <v>9.2434789442720779E-5</v>
+      </c>
+      <c r="AY67">
+        <f t="shared" ref="AY67:AY101" si="12">$AY$1-AR67</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G68">
         <v>67</v>
       </c>
-      <c r="B68">
-        <f>$E$3*($D$2^(A68*$C$1))</f>
-        <v>1.2103980051907894</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="H68">
+        <f t="shared" si="9"/>
+        <v>6.0519900259539475E-2</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="10"/>
+        <v>26.504238442745855</v>
+      </c>
+      <c r="AR68">
+        <v>67</v>
+      </c>
+      <c r="AS68">
+        <v>6.0519900259539475E-2</v>
+      </c>
+      <c r="AU68">
+        <f t="shared" si="11"/>
+        <v>7.5793062195372209E-5</v>
+      </c>
+      <c r="AY68">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G69">
         <v>68</v>
       </c>
-      <c r="B69">
-        <f>$E$3*($D$2^(A69*$C$1))</f>
-        <v>1.0949387207990793</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="H69">
+        <f t="shared" si="9"/>
+        <v>5.474693603995396E-2</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="10"/>
+        <v>26.425739986204743</v>
+      </c>
+      <c r="AR69">
+        <v>68</v>
+      </c>
+      <c r="AS69">
+        <v>5.474693603995396E-2</v>
+      </c>
+      <c r="AU69">
+        <f t="shared" si="11"/>
+        <v>6.2147469709024754E-5</v>
+      </c>
+      <c r="AY69">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G70">
         <v>69</v>
       </c>
-      <c r="B70">
-        <f>$E$3*($D$2^(A70*$C$1))</f>
-        <v>0.99049304209333089</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="H70">
+        <f t="shared" si="9"/>
+        <v>4.9524652104666542E-2</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="10"/>
+        <v>26.348696342651049</v>
+      </c>
+      <c r="AR70">
+        <v>69</v>
+      </c>
+      <c r="AS70">
+        <v>4.9524652104666542E-2</v>
+      </c>
+      <c r="AU70">
+        <f t="shared" si="11"/>
+        <v>5.0958595409145174E-5</v>
+      </c>
+      <c r="AY70">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G71">
         <v>70</v>
       </c>
-      <c r="B71">
-        <f>$E$3*($D$2^(A71*$C$1))</f>
-        <v>0.89601038651671505</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="H71">
+        <f t="shared" si="9"/>
+        <v>4.4800519325835751E-2</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="10"/>
+        <v>26.27306135903266</v>
+      </c>
+      <c r="AR71">
+        <v>70</v>
+      </c>
+      <c r="AS71">
+        <v>4.4800519325835751E-2</v>
+      </c>
+      <c r="AU71">
+        <f t="shared" si="11"/>
+        <v>4.1784137925986392E-5</v>
+      </c>
+      <c r="AY71">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G72">
         <v>71</v>
       </c>
-      <c r="B72">
-        <f>$E$3*($D$2^(A72*$C$1))</f>
-        <v>0.81054038607793177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="H72">
+        <f t="shared" si="9"/>
+        <v>4.0527019303896586E-2</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="10"/>
+        <v>26.198790928617306</v>
+      </c>
+      <c r="AR72">
+        <v>71</v>
+      </c>
+      <c r="AS72">
+        <v>4.0527019303896586E-2</v>
+      </c>
+      <c r="AU72">
+        <f t="shared" si="11"/>
+        <v>3.42614267171211E-5</v>
+      </c>
+      <c r="AY72">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G73">
         <v>72</v>
       </c>
-      <c r="B73">
-        <f>$E$3*($D$2^(A73*$C$1))</f>
-        <v>0.7332233279319319</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="H73">
+        <f t="shared" si="9"/>
+        <v>3.6661166396596598E-2</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="10"/>
+        <v>26.125842875326349</v>
+      </c>
+      <c r="AR73">
+        <v>72</v>
+      </c>
+      <c r="AS73">
+        <v>3.6661166396596598E-2</v>
+      </c>
+      <c r="AU73">
+        <f t="shared" si="11"/>
+        <v>2.8093085533365133E-5</v>
+      </c>
+      <c r="AY73">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G74">
         <v>73</v>
       </c>
-      <c r="B74">
-        <f>$E$3*($D$2^(A74*$C$1))</f>
-        <v>0.6632815068290584</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="H74">
+        <f t="shared" si="9"/>
+        <v>3.3164075341452916E-2</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="10"/>
+        <v>26.054176845973657</v>
+      </c>
+      <c r="AR74">
+        <v>73</v>
+      </c>
+      <c r="AS74">
+        <v>3.3164075341452916E-2</v>
+      </c>
+      <c r="AU74">
+        <f t="shared" si="11"/>
+        <v>2.3035276998274526E-5</v>
+      </c>
+      <c r="AY74">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G75">
         <v>74</v>
       </c>
-      <c r="B75">
-        <f>$E$3*($D$2^(A75*$C$1))</f>
-        <v>0.60001140244990681</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="H75">
+        <f t="shared" si="9"/>
+        <v>3.0000570122495344E-2</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="10"/>
+        <v>25.98375420977851</v>
+      </c>
+      <c r="AR75">
+        <v>74</v>
+      </c>
+      <c r="AS75">
+        <v>3.0000570122495344E-2</v>
+      </c>
+      <c r="AU75">
+        <f t="shared" si="11"/>
+        <v>1.8888063604015073E-5</v>
+      </c>
+      <c r="AY75">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G76">
         <v>75</v>
       </c>
-      <c r="B76">
-        <f>$E$3*($D$2^(A76*$C$1))</f>
-        <v>0.54277660294045715</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="H76">
+        <f t="shared" si="9"/>
+        <v>2.7138830147022855E-2</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="10"/>
+        <v>25.914537964578862</v>
+      </c>
+      <c r="AR76">
+        <v>75</v>
+      </c>
+      <c r="AS76">
+        <v>2.7138830147022855E-2</v>
+      </c>
+      <c r="AU76">
+        <f t="shared" si="11"/>
+        <v>1.5487504089316637E-5</v>
+      </c>
+      <c r="AY76">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G77">
         <v>76</v>
       </c>
-      <c r="B77">
-        <f>$E$3*($D$2^(A77*$C$1))</f>
-        <v>0.49100140346779253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="H77">
+        <f t="shared" si="9"/>
+        <v>2.4550070173389626E-2</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="10"/>
+        <v>25.846492649222924</v>
+      </c>
+      <c r="AR77">
+        <v>76</v>
+      </c>
+      <c r="AS77">
+        <v>2.4550070173389626E-2</v>
+      </c>
+      <c r="AU77">
+        <f t="shared" si="11"/>
+        <v>1.2699172765683166E-5</v>
+      </c>
+      <c r="AY77">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G78">
         <v>77</v>
       </c>
-      <c r="B78">
-        <f>$E$3*($D$2^(A78*$C$1))</f>
-        <v>0.44416501540651115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="H78">
+        <f t="shared" si="9"/>
+        <v>2.2208250770325556E-2</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="10"/>
+        <v>25.779584261663349</v>
+      </c>
+      <c r="AR78">
+        <v>77</v>
+      </c>
+      <c r="AS78">
+        <v>2.2208250770325556E-2</v>
+      </c>
+      <c r="AU78">
+        <f t="shared" si="11"/>
+        <v>1.0412845607828669E-5</v>
+      </c>
+      <c r="AY78">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G79">
         <v>78</v>
       </c>
-      <c r="B79">
-        <f>$E$3*($D$2^(A79*$C$1))</f>
-        <v>0.40179632790806702</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="H79">
+        <f t="shared" si="9"/>
+        <v>2.0089816395403352E-2</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="10"/>
+        <v>25.713780182320182</v>
+      </c>
+      <c r="AR79">
+        <v>78</v>
+      </c>
+      <c r="AS79">
+        <v>2.0089816395403352E-2</v>
+      </c>
+      <c r="AU79">
+        <f t="shared" si="11"/>
+        <v>8.5381430470399321E-6</v>
+      </c>
+      <c r="AY79">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G80">
         <v>79</v>
       </c>
-      <c r="B80">
-        <f>$E$3*($D$2^(A80*$C$1))</f>
-        <v>0.36346916916149435</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="H80">
+        <f t="shared" si="9"/>
+        <v>1.8173458458074717E-2</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="10"/>
+        <v>25.649049102316265</v>
+      </c>
+      <c r="AR80">
+        <v>79</v>
+      </c>
+      <c r="AS80">
+        <v>1.8173458458074717E-2</v>
+      </c>
+      <c r="AU80">
+        <f t="shared" si="11"/>
+        <v>7.0009572250747969E-6</v>
+      </c>
+      <c r="AY80">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G81">
         <v>80</v>
       </c>
-      <c r="B81">
-        <f>$E$3*($D$2^(A81*$C$1))</f>
-        <v>0.32879801968019567</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="H81">
+        <f t="shared" si="9"/>
+        <v>1.6439900984009784E-2</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="10"/>
+        <v>25.585360956222917</v>
+      </c>
+      <c r="AR81">
+        <v>80</v>
+      </c>
+      <c r="AS81">
+        <v>1.6439900984009784E-2</v>
+      </c>
+      <c r="AU81">
+        <f t="shared" si="11"/>
+        <v>5.7405224762917547E-6</v>
+      </c>
+      <c r="AY81">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G82">
         <v>81</v>
       </c>
-      <c r="B82">
-        <f>$E$3*($D$2^(A82*$C$1))</f>
-        <v>0.29743413449624506</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="H82">
+        <f t="shared" si="9"/>
+        <v>1.4871706724812252E-2</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="10"/>
+        <v>25.522686858984361</v>
+      </c>
+      <c r="AR82">
+        <v>81</v>
+      </c>
+      <c r="AS82">
+        <v>1.4871706724812252E-2</v>
+      </c>
+      <c r="AU82">
+        <f t="shared" si="11"/>
+        <v>4.707013232816719E-6</v>
+      </c>
+      <c r="AY82">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G83">
         <v>82</v>
       </c>
-      <c r="B83">
-        <f>$E$3*($D$2^(A83*$C$1))</f>
-        <v>0.26906203525671346</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="H83">
+        <f t="shared" si="9"/>
+        <v>1.3453101762835672E-2</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="10"/>
+        <v>25.460999046717188</v>
+      </c>
+      <c r="AR83">
+        <v>82</v>
+      </c>
+      <c r="AS83">
+        <v>1.3453101762835672E-2</v>
+      </c>
+      <c r="AU83">
+        <f t="shared" si="11"/>
+        <v>3.8595743968280655E-6</v>
+      </c>
+      <c r="AY83">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G84">
         <v>83</v>
       </c>
-      <c r="B84">
-        <f>$E$3*($D$2^(A84*$C$1))</f>
-        <v>0.24339633693724175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="H84">
+        <f t="shared" si="9"/>
+        <v>1.2169816846862087E-2</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="10"/>
+        <v>25.400270821106396</v>
+      </c>
+      <c r="AR84">
+        <v>83</v>
+      </c>
+      <c r="AS84">
+        <v>1.2169816846862087E-2</v>
+      </c>
+      <c r="AU84">
+        <f t="shared" si="11"/>
+        <v>3.164706319666884E-6</v>
+      </c>
+      <c r="AY84">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G85">
         <v>84</v>
       </c>
-      <c r="B85">
-        <f>$E$3*($D$2^(A85*$C$1))</f>
-        <v>0.22017887725388094</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="H85">
+        <f t="shared" si="9"/>
+        <v>1.1008943862694047E-2</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="10"/>
+        <v>25.340476497142301</v>
+      </c>
+      <c r="AR85">
+        <v>84</v>
+      </c>
+      <c r="AS85">
+        <v>1.1008943862694047E-2</v>
+      </c>
+      <c r="AU85">
+        <f t="shared" si="11"/>
+        <v>2.5949405452504032E-6</v>
+      </c>
+      <c r="AY85">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G86">
         <v>85</v>
       </c>
-      <c r="B86">
-        <f>$E$3*($D$2^(A86*$C$1))</f>
-        <v>0.19917611989895936</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="H86">
+        <f t="shared" si="9"/>
+        <v>9.9588059949479672E-3</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="10"/>
+        <v>25.281591353963471</v>
+      </c>
+      <c r="AR86">
+        <v>85</v>
+      </c>
+      <c r="AS86">
+        <v>9.9588059949479672E-3</v>
+      </c>
+      <c r="AU86">
+        <f t="shared" si="11"/>
+        <v>2.1277539693140387E-6</v>
+      </c>
+      <c r="AY86">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G87">
         <v>86</v>
       </c>
-      <c r="B87">
-        <f>$E$3*($D$2^(A87*$C$1))</f>
-        <v>0.18017680548103249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="H87">
+        <f t="shared" si="9"/>
+        <v>9.008840274051624E-3</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="10"/>
+        <v>25.223591588589603</v>
+      </c>
+      <c r="AR87">
+        <v>86</v>
+      </c>
+      <c r="AS87">
+        <v>9.008840274051624E-3</v>
+      </c>
+      <c r="AU87">
+        <f t="shared" si="11"/>
+        <v>1.7446784906953583E-6</v>
+      </c>
+      <c r="AY87">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G88">
         <v>87</v>
       </c>
-      <c r="B88">
-        <f>$E$3*($D$2^(A88*$C$1))</f>
-        <v>0.16298982654054314</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="H88">
+        <f t="shared" si="9"/>
+        <v>8.1494913270271571E-3</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="10"/>
+        <v>25.166454272345494</v>
+      </c>
+      <c r="AR88">
+        <v>87</v>
+      </c>
+      <c r="AS88">
+        <v>8.1494913270271571E-3</v>
+      </c>
+      <c r="AU88">
+        <f t="shared" si="11"/>
+        <v>1.4305709587637844E-6</v>
+      </c>
+      <c r="AY88">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G89">
         <v>88</v>
       </c>
-      <c r="B89">
-        <f>$E$3*($D$2^(A89*$C$1))</f>
-        <v>0.14744230526671739</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="H89">
+        <f t="shared" si="9"/>
+        <v>7.372115263335869E-3</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="10"/>
+        <v>25.110157309792836</v>
+      </c>
+      <c r="AR89">
+        <v>88</v>
+      </c>
+      <c r="AS89">
+        <v>7.372115263335869E-3</v>
+      </c>
+      <c r="AU89">
+        <f t="shared" si="11"/>
+        <v>1.1730145576808648E-6</v>
+      </c>
+      <c r="AY89">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G90">
         <v>89</v>
       </c>
-      <c r="B90">
-        <f>$E$3*($D$2^(A90*$C$1))</f>
-        <v>0.13337785458012202</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="H90">
+        <f t="shared" si="9"/>
+        <v>6.6688927290061021E-3</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="10"/>
+        <v>25.054679400000889</v>
+      </c>
+      <c r="AR90">
+        <v>89</v>
+      </c>
+      <c r="AS90">
+        <v>6.6688927290061021E-3</v>
+      </c>
+      <c r="AU90">
+        <f t="shared" si="11"/>
+        <v>9.6182796393424362E-7</v>
+      </c>
+      <c r="AY90">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G91">
         <v>90</v>
       </c>
-      <c r="B91">
-        <f>$E$3*($D$2^(A91*$C$1))</f>
-        <v>0.12065500508972231</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="H91">
+        <f t="shared" si="9"/>
+        <v>6.0327502544861153E-3</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="AR91">
+        <v>90</v>
+      </c>
+      <c r="AS91">
+        <v>6.0327502544861153E-3</v>
+      </c>
+      <c r="AU91">
+        <f t="shared" si="11"/>
+        <v>7.886628739159996E-7</v>
+      </c>
+      <c r="AY91">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G92">
         <v>91</v>
       </c>
-      <c r="B92">
-        <f>$E$3*($D$2^(A92*$C$1))</f>
-        <v>0.10914578210175016</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="H92">
+        <f t="shared" si="9"/>
+        <v>5.4572891050875079E-3</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="10"/>
+        <v>24.946099290273906</v>
+      </c>
+      <c r="AR92">
+        <v>91</v>
+      </c>
+      <c r="AS92">
+        <v>5.4572891050875079E-3</v>
+      </c>
+      <c r="AU92">
+        <f t="shared" si="11"/>
+        <v>6.4667399162452182E-7</v>
+      </c>
+      <c r="AY92">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G93">
         <v>92</v>
       </c>
-      <c r="B93">
-        <f>$E$3*($D$2^(A93*$C$1))</f>
-        <v>9.8734418367012994E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="H93">
+        <f t="shared" si="9"/>
+        <v>4.9367209183506502E-3</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="10"/>
+        <v>24.89295814215761</v>
+      </c>
+      <c r="AR93">
+        <v>92</v>
+      </c>
+      <c r="AS93">
+        <v>4.9367209183506502E-3</v>
+      </c>
+      <c r="AU93">
+        <f t="shared" si="11"/>
+        <v>5.3024843095141467E-7</v>
+      </c>
+      <c r="AY93">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G94">
         <v>93</v>
       </c>
-      <c r="B94">
-        <f>$E$3*($D$2^(A94*$C$1))</f>
-        <v>8.9316189618618674E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="H94">
+        <f t="shared" si="9"/>
+        <v>4.4658094809309334E-3</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="10"/>
+        <v>24.840558087017538</v>
+      </c>
+      <c r="AR94">
+        <v>93</v>
+      </c>
+      <c r="AS94">
+        <v>4.4658094809309334E-3</v>
+      </c>
+      <c r="AU94">
+        <f t="shared" si="11"/>
+        <v>4.3478383570076832E-7</v>
+      </c>
+      <c r="AY94">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G95">
         <v>94</v>
       </c>
-      <c r="B95">
-        <f>$E$3*($D$2^(A95*$C$1))</f>
-        <v>8.0796361187197449E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="H95">
+        <f t="shared" si="9"/>
+        <v>4.0398180593598726E-3</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="10"/>
+        <v>24.788881287099823</v>
+      </c>
+      <c r="AR95">
+        <v>94</v>
+      </c>
+      <c r="AS95">
+        <v>4.0398180593598726E-3</v>
+      </c>
+      <c r="AU95">
+        <f t="shared" si="11"/>
+        <v>3.565064463226955E-7</v>
+      </c>
+      <c r="AY95">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G96">
         <v>95</v>
       </c>
-      <c r="B96">
-        <f>$E$3*($D$2^(A96*$C$1))</f>
-        <v>7.3089235097992186E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="H96">
+        <f t="shared" si="9"/>
+        <v>3.6544617548996093E-3</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="10"/>
+        <v>24.737910507940935</v>
+      </c>
+      <c r="AR96">
+        <v>95</v>
+      </c>
+      <c r="AS96">
+        <v>3.6544617548996093E-3</v>
+      </c>
+      <c r="AU96">
+        <f t="shared" si="11"/>
+        <v>2.9232192145502869E-7</v>
+      </c>
+      <c r="AY96">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G97">
         <v>96</v>
       </c>
-      <c r="B97">
-        <f>$E$3*($D$2^(A97*$C$1))</f>
-        <v>6.6117288064899152E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="H97">
+        <f t="shared" si="9"/>
+        <v>3.3058644032449578E-3</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="10"/>
+        <v>24.687629092242542</v>
+      </c>
+      <c r="AR97">
+        <v>96</v>
+      </c>
+      <c r="AS97">
+        <v>3.3058644032449578E-3</v>
+      </c>
+      <c r="AU97">
+        <f t="shared" si="11"/>
+        <v>2.3969301717987002E-7</v>
+      </c>
+      <c r="AY97">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G98">
         <v>97</v>
       </c>
-      <c r="B98">
-        <f>$E$3*($D$2^(A98*$C$1))</f>
-        <v>5.981039171084368E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="H98">
+        <f t="shared" ref="H98:H101" si="13">$N$3*($M$2^(G98*$L$1))</f>
+        <v>2.9905195855421838E-3</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="10"/>
+        <v>24.638020935119453</v>
+      </c>
+      <c r="AR98">
+        <v>97</v>
+      </c>
+      <c r="AS98">
+        <v>2.9905195855421838E-3</v>
+      </c>
+      <c r="AU98">
+        <f t="shared" si="11"/>
+        <v>1.9653928859942885E-7</v>
+      </c>
+      <c r="AY98">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G99">
         <v>98</v>
       </c>
-      <c r="B99">
-        <f>$E$3*($D$2^(A99*$C$1))</f>
-        <v>5.4105107170959323E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="H99">
+        <f t="shared" si="13"/>
+        <v>2.7052553585479658E-3</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="10"/>
+        <v>24.589070460636158</v>
+      </c>
+      <c r="AR99">
+        <v>98</v>
+      </c>
+      <c r="AS99">
+        <v>2.7052553585479658E-3</v>
+      </c>
+      <c r="AU99">
+        <f t="shared" si="11"/>
+        <v>1.6115484888816208E-7</v>
+      </c>
+      <c r="AY99">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G100">
         <v>99</v>
       </c>
-      <c r="B100">
-        <f>$E$3*($D$2^(A100*$C$1))</f>
-        <v>4.8944046983231182E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="H100">
+        <f t="shared" si="13"/>
+        <v>2.4472023491615589E-3</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="10"/>
+        <v>24.54076259955324</v>
+      </c>
+      <c r="AR100">
+        <v>99</v>
+      </c>
+      <c r="AS100">
+        <v>2.4472023491615589E-3</v>
+      </c>
+      <c r="AU100">
+        <f t="shared" si="11"/>
+        <v>1.3214093479852831E-7</v>
+      </c>
+      <c r="AY100">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="7:51" x14ac:dyDescent="0.3">
+      <c r="G101">
         <v>100</v>
       </c>
-      <c r="B101">
-        <f>$E$3*($D$2^(A101*$C$1))</f>
-        <v>4.4275297848084205E-2</v>
+      <c r="H101">
+        <f t="shared" si="13"/>
+        <v>2.2137648924042104E-3</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="10"/>
+        <v>24.493082768210559</v>
+      </c>
+      <c r="AR101">
+        <v>100</v>
+      </c>
+      <c r="AS101">
+        <v>2.2137648924042104E-3</v>
+      </c>
+      <c r="AU101">
+        <f t="shared" si="11"/>
+        <v>1.0835061290365937E-7</v>
+      </c>
+      <c r="AY101">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/USA/Berekening temperture.xlsx
+++ b/USA/Berekening temperture.xlsx
@@ -3931,7 +3931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB57DCD4-EF19-4C8D-A11D-60AB66A3BE9E}">
   <dimension ref="A1:AY101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="49" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="49" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AQ38" sqref="AQ38"/>
     </sheetView>
   </sheetViews>
